--- a/persistence/data/EmployeesData.xlsx
+++ b/persistence/data/EmployeesData.xlsx
@@ -1,87 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\getPhones\persistence\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="16335" windowHeight="10830"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="90" windowWidth="16335" windowHeight="10830" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="EmployeesData" sheetId="1" r:id="rId1"/>
+    <sheet name="EmployeesData" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
-  <si>
-    <t>grupo</t>
-  </si>
-  <si>
-    <t>departamento</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>despacho</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>foto</t>
-  </si>
-  <si>
-    <t>david</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>gonzalo</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>alvaro</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,24 +48,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -375,124 +338,1754 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col width="23.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="31.28515625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="19.7109375" customWidth="1" min="13" max="13"/>
+    <col width="15.5703125" customWidth="1" min="14" max="14"/>
+    <col width="14.140625" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>departamento</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>grupo</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>despacho</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>telefono</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>mail</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>foto</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Llibertat Abad Muñoz</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BIO-MEMS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>E2-21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2419</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Llibertat.Abad@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Natalia Abramova Pavlova</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BIO-MEMS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>D2-05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2209</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>natalia.abramova@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jordi Aguiló Llobet</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>E1-11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2456</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>jordi.aguilo@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Juan Pablo Agusil Antonoff</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Micro y Nano Herramientas</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>E1-08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>JuanPablo.Agusil@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Nerea Alayo Bueno</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nalayo@irec.cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Albert Alcacer Exposito</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NEMS y Nanofabricación</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>E1-12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2486</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albert.Alcacer@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Armand Alsedá plana</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>army.alseda@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Maria del Mar Alvarez Sánchez</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Grupo de Aplicaciones Biomedicas</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>E1-15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>mar.alvarez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Esteve Amat Bertran</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NEMS y Nanofabricación</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>E1-19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2466</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Esteve.Amat@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bernat Antúnez Vallès</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>E2-08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2440</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bernat.Antunez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Maria Isabel Arjona Hidalgo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Micro y Nano Herramientas</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>E1-08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MariaIsabel.Arjona@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>August Arnal Rus</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>E1-14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>august.arnal@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sofia Aslanidou</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>E2-12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sofia.Aslanidou@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Oriol Aviñó Salvadó</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>E2-08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2439</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Oriol.Avino@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Xavier Ayesta Urquiza</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ES-15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2538/1069</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>xavier.ayesta@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Joan Aymerich Gubern</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>E1-10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2489</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Joan.Aymerich@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Andrea Azambuja Rebollar</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>E0-14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2520</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Andrea.Azambuja@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Antoni Baldi Coll</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>D2/07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2214</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>antoni.baldi@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Viorel Banu</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>E2-15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2412</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>viorel.banu@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mireia Bargalló González</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Capas delgadas de dieléctricos avanzados</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>E2-09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2407</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Mireia.Bargallo@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Daniela Bassignana</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Grupo de Detectores de Radiación</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>D1-12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2125</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>daniela.bassignana@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Joan Bausells Roigé</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NEMS y Nanofabricación</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>D1/03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2105</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>joan.bausells@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ana Beltran Engay</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>E1-27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2473</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ana.Beltran@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Elisenda Benet Miró</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>E2-20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2427</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>elisenda.benet@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Fco. Javier Bermúdez García</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ES-35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>javier.bermudez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ferran Bonet Isidro</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>E2-10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2438</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Ferran.Bonet@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Xavier Borrisé Nogué</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>E0-13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2511/1064</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>xavier.borrise@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Andrei Bratov</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BIO-MEMS</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>E2-11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2410</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>andrei.bratov@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Francisco Javier Bravo Calvo</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Grupo de Detectores de Radiación</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>E1-08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>javier.bravo@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>David Bricio Blazquez</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NEMS y Nanofabricación</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>E1-12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2485</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>David.Bricio@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sergi Brosel Oliu</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BIO-MEMS</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>E1-06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2497</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sergi.Brosel@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Isabel Maria Burdallo Bautista</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>E2-29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2476</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>isabel.burdallo@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mireia Burdó Masferrer</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>E2-12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2432</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Mireia.Burdo@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hector Cabezas Martínez</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>E0-19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2545</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>hector.cabezas@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Enric Cabruja Casas</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Grupo de Detectores de Radiación</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>D1/04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2107</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>enric.cabruja@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Alfredo Cadarso Busto</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>D2/09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2220</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>alfredo.cadarso@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Montse Calderón Aparicio</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>E1-24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2468</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>montse.calderon@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Álvaro Calleja Navalpotro</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>D2/09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2215</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>alvaro.calleja@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Anna Calsina Perpen</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>E1-28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2479</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Anna.Calsina@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Francesca Campabadal Segura</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Capas delgadas de dieléctricos avanzados</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>E2-21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2420</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>francesca.campabadal@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nestor Candanedo Parramon</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>E2-12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2433</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>nestor.candanedo@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Carles Cané Ballart</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>E1-09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2458</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>carles.cane@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ingrid Laura Cañero Infante</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>INGRID-CANERO-INFANTEINSA-LYON.FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Xavier Capell Solsona</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ES-11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2535/1050</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>xavier.capell@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guillermo Carpintero del Barrio</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>guiller@ing.uc3m.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Lourdes Carreras Gill</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>E1-27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2470</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>lourdes.carreras@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mª Encarnación Castillo Espinosa</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SB</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1058-1056</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>mari.castillo@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Evelyn Castro Peregrino</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>E0-14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2420</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Evelyn.Castro@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Umberto Celano</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>X@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Eva María Céspedes Montoya</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>E0-13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2510</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Eva.Cespedes@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Elena Chica Gordillo</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>E0-14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2522</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>elena.chica@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Josep Mª Cirera Perich</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>E0-07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2502</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>josepmaria.cirera@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jose Agustin Cisneros Fernandez</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>E1-10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2490</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Jose.Cisneros@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Esteve Cot Solsona</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>ES-35</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Esteve.Cot@imb-cnm.csic.es</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/persistence/data/EmployeesData.xlsx
+++ b/persistence/data/EmployeesData.xlsx
@@ -350,7 +350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
@@ -2082,7 +2082,5655 @@
           <t>Esteve.Cot@imb-cnm.csic.es</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jean Christophe Charles Nicolas Crebier</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>X@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Samuel Dacunha Pazos</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>E0-17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2518/1058</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Samuel.Dacunha@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Maurizio De Santis</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>x@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Michele Dei</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>E1-10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2492</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Michele.Dei@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Alberto Del Moral Cejudo</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NEMS y Nanofabricación</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>E1-12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2488</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Alberto.Delmoral@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jiri Hilde Dietvorst</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>E2-12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Jiri.Dietvorst@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Albert Doblas Moreno</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia, Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>E2-08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2441</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>albert.doblas@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Marc Dolcet Sadurní</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>E1-08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>marc.dolcet@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Carlos Domínguez Horna</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>E2-13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2411</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>carlos.dominguez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Wenchao Duan</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>wduan@icmab.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Marta Duch Llobera</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>E0-15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2513/2238</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>marta.duch@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Marcos Duque Duque</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Micro y Nano Herramientas</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>E2-10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2437</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Marcos.Duque@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Roger Durà Güell</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>E1-10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2489</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>roger.dura@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sara Durán Ibáñez</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>E0-11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2508</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sara.Duran@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Roger Escudé Pujol</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>E1-14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2481</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>roger.escude@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Juan Pablo Esquivel Bojorquez</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>D1/08</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2115</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>juanpablo.esquivel@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jaume Esteve Tintó</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Micro y Nano Herramientas</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>D1/05</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2110</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>jaume.esteve@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Denise Estrada Wiese</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>D1-09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2117</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Denise.Estrada@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Adrian Fernández Gavela</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>fernandezadrian@uniovi.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Marta Fernández Regúlez</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NEMS y Nanofabricación</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>E1-19</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2465</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>marta.fernandez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>César Fernández Sánchez</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>D2/07</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2213</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>cesar.fernandez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Xavier Fernández Tejero</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Grupo de Detectores de Radiación</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>D1/14</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Xavier.Fernandez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Federico Ferrarese Lupi</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>x@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Conrad Ferrer Falces</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>E2-08</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2439</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Conrad.Ferrer@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Òscar Ferrer Naval</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Grupo de Detectores de Radiación</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>D1/14</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Oscar.Ferrer@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Carles Ferrer Ramis</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>E1-11</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>carles.ferrer@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Amparo Ferrer Vilanova</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>E2-12</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2431</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Amparo.Ferrer@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Roger Figueras Bagué</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>E1-17</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2463</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>roger.figueras@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Neus Figueras Carreras</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>E1-27</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2471</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>neus.figueras@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Eduardo Figueras Costa</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>D1/05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2109</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>eduard.figueras@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Celeste Fleta Corral</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Grupo de Detectores de Radiación</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>D2/06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2211</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>celeste.fleta@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>David Flores Gual</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>D2/03</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2205</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>david.flores@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Luis A. Fonseca Chácharo</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>D1/02</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>luis.fonseca@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Xavier Formatjé Rodellas</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>E2-07</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2404</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>xavier.formatje@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jordi Fraxedas Calduch</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>jordi.fraxedas@icn2.cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Laura Fuentes Rodríguez</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>BIO-MEMS</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>E2-12</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2431</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Laura.Fuentes@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Naüm Fusté Duch</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>E2-08</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2441</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>naum.fuste@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Gemma Gabriel Buguña</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>E1-15</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2459</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>gemma.gabriel@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Dmitry Galyamin</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía, BIO-MEMS</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>D1/14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Dmitry.Galyamin@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Andrés García Camino</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>andres.garcia@e-campus.uab.cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Alberto Garcia Garcia</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>E2-15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2413</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>alberto.garcia@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Lourdes García Rodríguez</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>D+T</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>E1-25</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Lourdes.Garcia@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Daniel Garnier Fernandez</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>dgarnier411@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Manuel Garrote Vasco</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>E1-27</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2472</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>manuel.garrote@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Antonio Garzón Rus</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>ES-12</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>antonio.garzon@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Maria Isabel Gavilanes Pérez</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>E2-25</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2424</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Isabel.Gavilanes@dicat.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Pablo Antonio Gimenez Gomez</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>E2-10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2435</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Pablo.Gimenez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Philippe Godignon</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>E2-19</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2417</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>philippe.godignon@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Manuel González Garcia</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>x@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Nieves González Martínez</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>E2-05</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2401</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>nieves.gonzalez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Ignacio González Portillo</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>nachogo23@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Isabel Gràcia Tortadés</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>D1/06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2111</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>isabel.gracia@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Pau Güell i Grau</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Grupo de Aplicaciones Biomedicas</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>E1-04</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2501</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Pau.Guell@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Albert Guerrero Barbero</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>E0-11</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2509</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Albert.Guerrero@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Anton Guimerà Brunet</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Grupo de Aplicaciones Biomedicas</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>E1-13</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2452</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>anton.guimera@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Loreta Gutiérrez Cabria</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>D+T</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>E1-25</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>loreta.gutierrez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Manuel Gutiérrez Capitán</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>D2/06</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2212</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>manuel.gutierrez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Salvador Hidalgo Villena</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>D2/03</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2206</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>salvador.hidalgo@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Miguel Holgado</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Bolaños</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>x@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Xavier Illa Vila</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Grupo de Aplicaciones Biomedicas</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>E1-13</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Xavier.Illa@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>David Izquierdo Nuñez</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>d.izquierdo@unizar.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Cecilia Jiménez Jorquera</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>E2-13</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2409</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>cecilia.jimenez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>F. Xavier Jordà Sanuy</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>E1-07</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2448-2225</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>xavier.jorda@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Alberto Lajara Corral</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>alberto.lajara@e-campus.uab.cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Mireia Laplaza Arjona</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>mireialaplazai@e-campus.uab.cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Elena Katia Leal Algara</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>katia.leal@urjc.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Laura Lefaix Fernández</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>E2-10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Laura.Lefaix@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Tammy Leung</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>E1-14</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Tammy.Leung@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Santiago Llop Orona</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>E2-05</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2402</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Santiago.Llop@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Anna Llorella i Bustins</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>D1/11</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>anna.llorella@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Joaquima López García</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>E1-27</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2474</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>joaquima.lopez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Ginebra López Miralles</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>ginebralopez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Emilio Lora-Tamayo D'Ocon</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>NEMS y Nanofabricación</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>E1-26</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2458</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>emilio.lora@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Manuel Lozano Fantoba</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Grupo de Detectores de Radiación</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>E1-28</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2478</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>manuel.lozano@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Marcos Maestro Izquierdo</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Capas delgadas de dieléctricos avanzados</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>E2-09</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2406</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Marcos.Maestro@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Marta Mañez Alambiaga</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>E1-04</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2499</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Marta.Manez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Maria Manna</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Grupo de Detectores de Radiación</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>D2/09</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2218</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>maria.manna@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Maria Pilar Marco Colás</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>mpilar.csic@outlook.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Josep Mª Margarit Taulé</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>E1-10</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2491</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>josepmaria.margarit@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Augusto Manuel Márquez Maqueda</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>E2-12</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2433</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Augusto. Marquez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Denise Marrero Feitosa-Afonsso</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>E1-06</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2498</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Denise.Marrero@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Iñigo Martín Fernández</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>E2-19</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2418</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>inigo.martin@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Javier Martínez Aguilar</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Grupo de Aplicaciones Biomedicas</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>E1-06</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2496</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Javier.Martinez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Leyre Martínez de Olcoz Sainz</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>E0-07</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2504/2307</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Leyre.Martinez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Carme Martínez Domingo</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>E1-14</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2481</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>carme.martinez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Ricardo Martínez Martínez</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>E1-17</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2461</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>ricardo.martinez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Roser Mas Colomina</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>E0-17</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2517/1058</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>roser.mas@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Xavier Mas Pla</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>ES-35</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>xavier.mas@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Eduard Masvidal Codina</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Grupo de Aplicaciones Biomedicas</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>E1-06</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2497</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>eduard.masvidal@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Humberto Mata Rodríguez</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>D+T</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>E1-25</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2122</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>humberto.mata@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Lucía Matamoros Pava</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>lucia.matamoros@e-campus.uab.cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Carles Mateu Mañé</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>E0-17</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2516</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>carles.mateu@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Elham Mazalan</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ELHAM.MAZALAN@GMAIL.COM</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Silvana Mercone</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>X@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Irene Merino Jiménez</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>D1/09</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2118</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Irene.Merino@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Angel Merlos Domingo</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>D2/04</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2208</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>angel.merlos@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Neil Moffat</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>D1/12</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2126</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Neil.Moffat@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Nur Umisyuhada Mohd Nor</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>umisyuhada@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Josep Montserrat Martí</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>E0-07</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2504</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>josep.montserrat@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Jorge Morales Guerrero</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>ES-35</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Jorge.Morales@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Alexandre Moreno Diaz</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>D2/09</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2217</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>alexandre.moreno@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Alberto Moreno Garriga</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>E0-19</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2543</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>alberto.moreno@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Francesc Xavier Muñoz Berbel</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>D2/04</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2207</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Xavier.Munoz@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Annabel Muñoz González</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>grup7</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>E1-28</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>annabel.munoz@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>David Muñoz López</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>ES-15</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2538/1070</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>david.munoz@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Francisco Javier Muñoz Pascual</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>BIO-MEMS</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>E2-11</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2408</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>francescxavier.munoz@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Olga Muntada Lopez</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>NEMS y Nanofabricación</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>E1-12</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2487</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Olga.Muntada@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Irdi Murataj</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>x@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Gonzalo Murillo Rodríguez</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Micro y Nano Herramientas</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>D1/01</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2102</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Gonzalo.Murillo@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Marina Navarro Segarra</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>D1/11</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2233</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>marina.navarro@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Ricard Noy Orcau</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>E0-07</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2503</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Ricard.Noy@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Ricardo Nuñez Prieto</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>E1-17</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2462</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Ricardo.Nunez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Cristina Ocaña Tejada</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>BIO-MEMS</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>D1-13</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2127</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Cristina.Ocana@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Katzalin Olcoz Herrero</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>katzalin@ucm.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Alejandro Ortega Moñux</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>x@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Laura Ortega Tañá</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>D1/14</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Laura.Ortega@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>MªJesús Ortiz Aguayo</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>mariajesus.ortiz@e-campus.uab.cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Sergio Andrés Ospina Rodríguez</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>X@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Sofia Otero Ugobono</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Grupo de Detectores de Radiación</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>D1/12</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sofia.Otero@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Jofre Pallarés Cuxart</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>E1-17</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2463</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Jofre.Pallares@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Ramon Pallàs Jordana</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>E2-07</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2403</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>ramon.pallas@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Tony Pardo Pérez</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>tpardo19@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Giulio Pellegrini</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Grupo de Detectores de Radiación</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>D2/02</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2204</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>giulio.pellegrini@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Hector Pérez Castillejos</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2477</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Hector.Perez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Francesc Pérez Murano</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>NEMS y Nanofabricación</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>D1/07</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2113</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>francesc.perez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Bernat Pérez Playà</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>berni2611@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Xavier Perpiña Giribet</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>E1-07</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2449</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>xavier.perpinya@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Christian Pinto Gómez</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>NEMS y Nanofabricación</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>E1-12</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2486</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Christian.Pinto@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>José Antonio Plaza Plaza</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Micro y Nano Herramientas</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>D1/03</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2106</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>joseantonio.plaza@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Samuel Poblador Cester</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Capas delgadas de dieléctricos avanzados</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>E2-10</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Samuel.Poblador@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Elisabet Prats Alfonso</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Grupo de Aplicaciones Biomedicas</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>E1-05</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2447</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Elisabet.Prats@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Nil Puertas Ametller</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>nil.puertas@e-campus.uab.cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Joan Puertas Esteve</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>E1-17</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2223/2461</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>joan.puertas@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Ferran Pujol Vila</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Grupo de Aplicaciones Biomedicas</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>E1-08</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Ferran.Pujol@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>David Quirion</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Grupo de Detectores de Radiación</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>D1/04</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>David.Quirion@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Joan Marc Rafí Tatjer</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Grupo de Detectores de Radiación</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>D2/01</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2201</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>joanmarc.rafi@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Eloi Ramon Garcia</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>E1-11</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Eloi.Ramon@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Lucia Re Blanco</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Grupo de Aplicaciones Biomedicas</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>E1-06</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2496</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Lucia.Re@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>José Andrés Rebollo Palacios</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>E2-17</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2415</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>jose.rebollo@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Silvia Revuelta Platero</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>silrepla@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Juan Manuel Ríos Gallardo</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>E1-04</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>JuanManuel.Rios@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Gemma Rius Suñé</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>E2-17</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2416</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Gemma.Rius@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Javier Rodriguez Alvarez</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>javier.rodriguez.alvarez95@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Serena Rollo</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>X@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Javier Romero Gil</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>javierromerogil229@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Alberto Ros Bardisa</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>X@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Meritxell Rovira Fernández</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>E2-12</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2432</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Meritxell.Rovira@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Luis Gabriel Rull Camacho</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>E0-14</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2520</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Luis. Rull@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Mª Neus Sabaté Vizcarra</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>D1/08</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2116</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>neus.sabate@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Jordi Sacristán Riquelme</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>E1-17</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2462</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>jordi.sacristan@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Antonio Sáenz García</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>ES-35</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Antonio.Saenz@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Sunil Sailapu</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>D1/11</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2228</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Sunil.Sailapu@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Marc Salleras Freixes</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>D1/09</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>2119</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Marc.Salleras@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Mercedes Saludes Tapia</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>mercedes.saludes@e-campus.uab.cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Ana Mª Sánchez Amores</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>E0-07</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>2503</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>ana.sanchez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Javier Sánchez López</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>E0-11</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2507</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>javier.sanchez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>María Sánchez Martínez</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>E0-19</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2544</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>maria.sanchez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Sergio Sánchez Romero</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>E0-09</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2506</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>sergi.sanchez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>David Sánchez Sánchez</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>D2/09</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2216/2225</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>david.sanchez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Joaquín Santander Vallejo</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>D1/02</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2103</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>joaquin.santander@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Mónica Sarrión Romero</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>E0-14</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2522/2308/1058</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>monica.sarrion@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Carlos Seisdedos Fernández</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>ES-35</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>carlos.seisdedos@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Francesc Serra Graells</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>E1-10</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2491</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>paco.serra@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Libertad Solé Díaz</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>E0-09</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2505/1064</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>libertad.sole@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Víctor Soler Rosales</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>E2-08</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2442</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Victor.Soler@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Robert Soriano Casero</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>D1/13</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2128</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Robert.Soriano@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Alejandro Suanes Pérez</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>E1-10</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2490</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Alejandro.Suanes@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Fernando Suárez Narbona</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>ES-35</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>fernando.suarez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Lluís Terés Terés</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Circuitos Integrados y Systemas</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>E1-11</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2455</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>lluis.teres@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Elisabet Tironi Laporte</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>E2-27</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2475</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Elisabet.Tironi@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Raphaela Tkatchenko</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>E1-04</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2501</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Raphaela.Tkatchenko@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Milena Tomic</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>D1/14</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Milena.Tomic@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Núria Torres Herrero</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>E0-15</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2515</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>nuria.torres@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Claudia Ughettini</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>claudia.ughettini@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Victor Ukleev</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>x@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Miguel Ullán Comes</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Grupo de Detectores de Radiación</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>D2/02</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2203</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>miguel.ullan@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Naroa Uría Moltó</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>BIO-MEMS</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>D1-13</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2129</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Naroa.Uria@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Enrique Vallejo Gutierrez</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>enrique.vallejo@unican.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Stella Vallejos Vargas</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Microfabricación e integración de sensores y fuentes de energía</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>D1-06</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2112</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Stella.Vallejos@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Adriana Jacoba Maria Van den Eijnden</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Extern</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>X@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Gonzalo Vazquez Mariño</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>D2/09</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2219</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Gonzalo.Vazquez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Olaf Vazquez Siso</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>E0-14</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2520</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Olaf.Vazquez@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Miquel Vellvehí Hernández</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Dispositivos y Sistemas de Potencia</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>D2/01</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2202-2226</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>miquel.vellvehi@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Ferran Vera Gras</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Grupo de Transductores Químicos</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>E2-27</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2469</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>ferran.vera@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Daniel Vera Ibáñez</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Grupo de Aplicaciones Biomedicas</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>E1-04</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2499</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Daniel.Vera@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Maria Luisa Vilaplana Holgado</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>lvhnqb@cid.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Rosa Villa Sanz</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Grupo de Aplicaciones Biomedicas</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>E1-05</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2446</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>rosa.villa@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Miguel Zabala García</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>ICTS</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>----</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>E0-21</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2546-1060</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>miguel.zabala@imb-cnm.csic.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Miguel Zea García</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>DMN</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Grupo de Aplicaciones Biomedicas</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>E1-04</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Miguel.Zea@imb-cnm.csic.es</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
